--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92488.7056562759</v>
+        <v>89787.48900481897</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>116.9725659584295</v>
       </c>
       <c r="Y2" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>17.09213208248546</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.4108463930934</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>108.954881065729</v>
       </c>
       <c r="W4" t="n">
-        <v>54.81167109597841</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>372.4725952347497</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.132075312814709</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>74.7710858504628</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.2734647695172</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.36018225871355</v>
       </c>
       <c r="S6" t="n">
         <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238325</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
-        <v>102.2014126183939</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6974299383169</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>88.01939808542868</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5499160015376</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.90523611264328</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>164.0601428514942</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>310.1681053992888</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>85.67291306389092</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,10 +1306,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>98.89148327532443</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>72.64042080789817</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>260.4182510681785</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
@@ -1388,7 +1388,7 @@
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184557</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615211</v>
+        <v>98.88510599615212</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>173.0395628710223</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530788</v>
+        <v>10.48847705530791</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>79.8133067990524</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>232.1796789370451</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>45.85984677540951</v>
       </c>
     </row>
     <row r="14">
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>19.88691958258326</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>78.58522891595226</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>16.92025364381624</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012363</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>13.7922272577523</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881304</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>68.17501931583847</v>
       </c>
       <c r="F22" t="n">
-        <v>99.76859704213577</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>24.83266606353035</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>65.25773758188296</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633183148</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>143.7703193541467</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>23.10998325717174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,10 +2962,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>164.0001714587655</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>24.83266606353121</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>72.80978492054778</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3478,13 +3478,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953136</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>255.3840664016664</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,10 +3673,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>92.87435055577301</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>180.3302385618273</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444131</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3904,7 +3904,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>12.74007641194041</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>6.600826611594101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,10 +4141,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>52.1064554151406</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>54.31367585848611</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573.7617370571243</v>
+        <v>936.7014129773081</v>
       </c>
       <c r="C2" t="n">
-        <v>573.7617370571243</v>
+        <v>936.7014129773081</v>
       </c>
       <c r="D2" t="n">
-        <v>307.3840804899463</v>
+        <v>936.7014129773081</v>
       </c>
       <c r="E2" t="n">
-        <v>307.3840804899463</v>
+        <v>936.7014129773081</v>
       </c>
       <c r="F2" t="n">
-        <v>300.4385797407429</v>
+        <v>670.32375641013</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672984</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4370,10 +4370,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>936.7014129773081</v>
       </c>
       <c r="Y2" t="n">
-        <v>840.1393936243022</v>
+        <v>936.7014129773081</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.09711040012049</v>
+        <v>38.36189028141894</v>
       </c>
       <c r="C3" t="n">
-        <v>21.09711040012049</v>
+        <v>38.36189028141894</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>38.36189028141894</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>38.36189028141894</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>38.36189028141894</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T3" t="n">
-        <v>839.7105578442523</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U3" t="n">
-        <v>839.7105578442523</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="V3" t="n">
-        <v>604.5584496125095</v>
+        <v>246.1221890463729</v>
       </c>
       <c r="W3" t="n">
-        <v>604.5584496125095</v>
+        <v>246.1221890463729</v>
       </c>
       <c r="X3" t="n">
-        <v>397.0727461851425</v>
+        <v>246.1221890463729</v>
       </c>
       <c r="Y3" t="n">
-        <v>189.3124474201885</v>
+        <v>38.36189028141894</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.9870578980309</v>
+        <v>205.2577368622517</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9870578980309</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="D4" t="n">
-        <v>167.9870578980309</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9870578980309</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407075</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="U4" t="n">
-        <v>659.6853352735295</v>
+        <v>581.690828849358</v>
       </c>
       <c r="V4" t="n">
-        <v>405.0008470676427</v>
+        <v>471.6353934294298</v>
       </c>
       <c r="W4" t="n">
-        <v>349.6355227282705</v>
+        <v>205.2577368622517</v>
       </c>
       <c r="X4" t="n">
-        <v>349.6355227282705</v>
+        <v>205.2577368622517</v>
       </c>
       <c r="Y4" t="n">
-        <v>349.6355227282705</v>
+        <v>205.2577368622517</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>795.3824159274959</v>
+        <v>794.2389055105136</v>
       </c>
       <c r="C5" t="n">
-        <v>426.4198989870842</v>
+        <v>794.2389055105136</v>
       </c>
       <c r="D5" t="n">
-        <v>426.4198989870842</v>
+        <v>435.9732069037631</v>
       </c>
       <c r="E5" t="n">
-        <v>50.18495430551883</v>
+        <v>50.18495430551889</v>
       </c>
       <c r="F5" t="n">
-        <v>43.23945355631536</v>
+        <v>43.23945355631541</v>
       </c>
       <c r="G5" t="n">
-        <v>30.69501822523463</v>
+        <v>30.69501822523468</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523463</v>
+        <v>30.69501822523468</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523463</v>
+        <v>30.69501822523468</v>
       </c>
       <c r="J5" t="n">
         <v>93.76641159275209</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245576</v>
+        <v>239.0325989245578</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825658</v>
+        <v>456.1499114825663</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748894</v>
+        <v>729.4041931748906</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202384</v>
+        <v>1011.693823202386</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798419</v>
+        <v>1264.916654798421</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189417</v>
+        <v>1446.535482189419</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261732</v>
+        <v>1534.750911261734</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261732</v>
+        <v>1534.750911261734</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261732</v>
+        <v>1534.750911261734</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261732</v>
+        <v>1533.607400844749</v>
       </c>
       <c r="U5" t="n">
-        <v>1534.750911261732</v>
+        <v>1533.607400844749</v>
       </c>
       <c r="V5" t="n">
-        <v>1534.750911261732</v>
+        <v>1533.607400844749</v>
       </c>
       <c r="W5" t="n">
-        <v>1181.982255991618</v>
+        <v>1180.838745574635</v>
       </c>
       <c r="X5" t="n">
-        <v>1181.982255991618</v>
+        <v>1180.838745574635</v>
       </c>
       <c r="Y5" t="n">
-        <v>1181.982255991618</v>
+        <v>1180.838745574635</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>401.0253659153699</v>
+        <v>252.7559255422515</v>
       </c>
       <c r="C6" t="n">
-        <v>226.5723366342428</v>
+        <v>252.7559255422515</v>
       </c>
       <c r="D6" t="n">
-        <v>226.5723366342428</v>
+        <v>252.7559255422515</v>
       </c>
       <c r="E6" t="n">
-        <v>67.33488162878736</v>
+        <v>177.2295761983497</v>
       </c>
       <c r="F6" t="n">
-        <v>67.33488162878736</v>
+        <v>30.69501822523468</v>
       </c>
       <c r="G6" t="n">
-        <v>67.33488162878736</v>
+        <v>30.69501822523468</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878736</v>
+        <v>30.69501822523468</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523463</v>
+        <v>30.69501822523468</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563468</v>
+        <v>49.44206107563487</v>
       </c>
       <c r="K6" t="n">
-        <v>159.6385680169456</v>
+        <v>388.9600665101464</v>
       </c>
       <c r="L6" t="n">
-        <v>354.1339118482983</v>
+        <v>583.4554103414994</v>
       </c>
       <c r="M6" t="n">
-        <v>608.9812656736553</v>
+        <v>829.7791710122465</v>
       </c>
       <c r="N6" t="n">
-        <v>876.2331282458787</v>
+        <v>1097.03103358447</v>
       </c>
       <c r="O6" t="n">
-        <v>1098.496575411398</v>
+        <v>1319.29448074999</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948677</v>
+        <v>1478.347425948679</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261732</v>
+        <v>1534.750911261734</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261732</v>
+        <v>1530.346686757983</v>
       </c>
       <c r="S6" t="n">
-        <v>1390.282497655827</v>
+        <v>1385.878273152078</v>
       </c>
       <c r="T6" t="n">
-        <v>1194.377855207511</v>
+        <v>1385.878273152078</v>
       </c>
       <c r="U6" t="n">
-        <v>966.2567715281152</v>
+        <v>1157.757189472683</v>
       </c>
       <c r="V6" t="n">
-        <v>863.0230214085254</v>
+        <v>922.6050812409399</v>
       </c>
       <c r="W6" t="n">
-        <v>608.7856646803239</v>
+        <v>668.3677245127383</v>
       </c>
       <c r="X6" t="n">
-        <v>608.7856646803239</v>
+        <v>460.5162243072054</v>
       </c>
       <c r="Y6" t="n">
-        <v>401.0253659153699</v>
+        <v>252.7559255422515</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.0421765098066</v>
+        <v>534.0582110223155</v>
       </c>
       <c r="C7" t="n">
-        <v>497.1059935818997</v>
+        <v>534.0582110223155</v>
       </c>
       <c r="D7" t="n">
-        <v>346.989354169564</v>
+        <v>534.0582110223155</v>
       </c>
       <c r="E7" t="n">
-        <v>199.0762605871709</v>
+        <v>386.1451174399224</v>
       </c>
       <c r="F7" t="n">
-        <v>199.0762605871709</v>
+        <v>239.255169942012</v>
       </c>
       <c r="G7" t="n">
-        <v>30.69501822523463</v>
+        <v>239.255169942012</v>
       </c>
       <c r="H7" t="n">
-        <v>30.69501822523463</v>
+        <v>150.3466870274376</v>
       </c>
       <c r="I7" t="n">
-        <v>30.69501822523463</v>
+        <v>32.61949914709658</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523463</v>
+        <v>30.69501822523468</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223272</v>
+        <v>157.4322756223274</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830398</v>
+        <v>375.1387655830402</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388166</v>
+        <v>615.0688576388172</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974842</v>
+        <v>854.728564797485</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891674</v>
+        <v>1060.076798891675</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934024</v>
+        <v>1212.267005934025</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495187</v>
+        <v>1234.200536495188</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495187</v>
+        <v>1234.200536495188</v>
       </c>
       <c r="S7" t="n">
-        <v>1234.200536495187</v>
+        <v>1234.200536495188</v>
       </c>
       <c r="T7" t="n">
-        <v>1234.200536495187</v>
+        <v>1009.535278371732</v>
       </c>
       <c r="U7" t="n">
-        <v>1234.200536495187</v>
+        <v>1009.535278371732</v>
       </c>
       <c r="V7" t="n">
-        <v>1234.200536495187</v>
+        <v>754.8507901658456</v>
       </c>
       <c r="W7" t="n">
-        <v>1234.200536495187</v>
+        <v>754.8507901658456</v>
       </c>
       <c r="X7" t="n">
-        <v>1068.483220483576</v>
+        <v>754.8507901658456</v>
       </c>
       <c r="Y7" t="n">
-        <v>847.6906413400463</v>
+        <v>534.0582110223155</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1699.061860336089</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.099343395678</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
         <v>795.755353087292</v>
@@ -4835,19 +4835,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1995.457151099396</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1995.457151099396</v>
       </c>
       <c r="X8" t="n">
-        <v>2475.801032376023</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="Y8" t="n">
-        <v>2085.661700400211</v>
+        <v>1621.991392838317</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429759</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744476</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="W10" t="n">
-        <v>1281.871244721818</v>
+        <v>1244.445543553119</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.881693823801</v>
+        <v>1171.071381120898</v>
       </c>
       <c r="Y10" t="n">
-        <v>833.0891146802707</v>
+        <v>950.2788019773682</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1950.79667383271</v>
+        <v>1816.553216477142</v>
       </c>
       <c r="C11" t="n">
-        <v>1581.834156892298</v>
+        <v>1553.504478024437</v>
       </c>
       <c r="D11" t="n">
-        <v>1581.834156892299</v>
+        <v>1195.238779417687</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.045904294054</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="F11" t="n">
-        <v>785.0599995044468</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="G11" t="n">
-        <v>370.4442349455923</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592075</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J11" t="n">
         <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.161540565696</v>
+        <v>695.1615405656956</v>
       </c>
       <c r="L11" t="n">
         <v>1216.83000462533</v>
@@ -5051,40 +5051,40 @@
         <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484042</v>
+        <v>2455.600890484043</v>
       </c>
       <c r="O11" t="n">
         <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479996</v>
+        <v>3493.127967479995</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464062</v>
+        <v>3789.749829464061</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796038</v>
+        <v>3876.883295796036</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345379</v>
+        <v>3776.999350345377</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926743</v>
+        <v>3573.020743926741</v>
       </c>
       <c r="U11" t="n">
-        <v>3398.233306683286</v>
+        <v>3319.52680204827</v>
       </c>
       <c r="V11" t="n">
-        <v>3067.170419339715</v>
+        <v>3319.52680204827</v>
       </c>
       <c r="W11" t="n">
-        <v>2714.401764069601</v>
+        <v>2966.758146778156</v>
       </c>
       <c r="X11" t="n">
-        <v>2340.936005808521</v>
+        <v>2593.292388517076</v>
       </c>
       <c r="Y11" t="n">
-        <v>1950.79667383271</v>
+        <v>2203.153056541264</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="K12" t="n">
-        <v>77.53766591592075</v>
+        <v>354.473570333545</v>
       </c>
       <c r="L12" t="n">
-        <v>496.2347065738724</v>
+        <v>773.1706109914966</v>
       </c>
       <c r="M12" t="n">
-        <v>996.4574081599343</v>
+        <v>1011.185054749523</v>
       </c>
       <c r="N12" t="n">
-        <v>1532.266717861144</v>
+        <v>1546.994364450733</v>
       </c>
       <c r="O12" t="n">
-        <v>2000.207762193667</v>
+        <v>2014.935408783255</v>
       </c>
       <c r="P12" t="n">
-        <v>2356.438638438442</v>
+        <v>2371.16628502803</v>
       </c>
       <c r="Q12" t="n">
-        <v>2544.650348868987</v>
+        <v>2559.377995458575</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>687.4612356009949</v>
+        <v>835.7893828380001</v>
       </c>
       <c r="C13" t="n">
-        <v>687.4612356009949</v>
+        <v>666.8531999100932</v>
       </c>
       <c r="D13" t="n">
-        <v>537.3445961886592</v>
+        <v>516.7365604977574</v>
       </c>
       <c r="E13" t="n">
-        <v>389.431502606266</v>
+        <v>368.8234669153643</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062661</v>
+        <v>221.933519417454</v>
       </c>
       <c r="G13" t="n">
         <v>221.933519417454</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758649</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648146</v>
+        <v>364.1690246648144</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344811</v>
+        <v>710.5788654344806</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010723</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
         <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.627619458879</v>
+        <v>2056.743466925583</v>
       </c>
       <c r="T13" t="n">
-        <v>1647.73628689332</v>
+        <v>1835.852134360023</v>
       </c>
       <c r="U13" t="n">
-        <v>1413.211358674082</v>
+        <v>1835.852134360023</v>
       </c>
       <c r="V13" t="n">
-        <v>1158.526870468195</v>
+        <v>1581.167646154136</v>
       </c>
       <c r="W13" t="n">
-        <v>869.1097004312346</v>
+        <v>1291.750476117176</v>
       </c>
       <c r="X13" t="n">
-        <v>869.1097004312346</v>
+        <v>1063.760925219158</v>
       </c>
       <c r="Y13" t="n">
-        <v>869.1097004312346</v>
+        <v>1017.43784766824</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>417.9651836029414</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>913.2907898187001</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.8410298377091</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5440,7 +5440,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1957.373282952344</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.688794746457</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1413.271624709496</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.282073811479</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>964.4894946679489</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5504,52 +5504,52 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075801</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>924.8344286397182</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1552.432392194325</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2104.342122433612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.8431516380864</v>
+        <v>931.4710609784062</v>
       </c>
       <c r="C19" t="n">
-        <v>572.9069687101794</v>
+        <v>762.5348780504992</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133953</v>
+        <v>612.4182386381634</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557703</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487565</v>
+        <v>2433.031540895662</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510506</v>
+        <v>2213.430075918604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854704</v>
+        <v>1924.354849262801</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648817</v>
+        <v>1669.670361056914</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611856</v>
+        <v>1380.253191019954</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611856</v>
+        <v>1152.263640121936</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683261</v>
+        <v>931.4710609784062</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L21" t="n">
-        <v>949.9304447718133</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770314</v>
+        <v>580.8993044876696</v>
       </c>
       <c r="C22" t="n">
-        <v>634.3345878491245</v>
+        <v>411.9631215597627</v>
       </c>
       <c r="D22" t="n">
-        <v>484.2179484367888</v>
+        <v>411.9631215597626</v>
       </c>
       <c r="E22" t="n">
-        <v>336.3048548543958</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750801</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072712</v>
+        <v>762.5477693179093</v>
       </c>
     </row>
     <row r="23">
@@ -5984,19 +5984,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2131.1456388392</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1842.070412183398</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1587.385923977512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1587.385923977512</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6218,58 +6218,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C28" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277358</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>215.8238677453427</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453427</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1899.284239455938</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1644.599751250051</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1355.18258121309</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1127.193030315073</v>
+        <v>916.2946447138414</v>
       </c>
       <c r="Y28" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6546,22 +6546,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282754</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2031.405806640329</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1742.330579984527</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1487.64609177864</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1198.228921741679</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,13 +6686,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,16 +6731,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876694</v>
+        <v>800.5007694647275</v>
       </c>
       <c r="C34" t="n">
-        <v>555.8158034133954</v>
+        <v>631.5645865368206</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>481.4479471244848</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>481.4479471244848</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>334.5579996265744</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>167.3619003414545</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>167.3619003414545</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,7 +6874,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
@@ -6883,25 +6883,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579362</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373475</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1202.941813438497</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179091</v>
+        <v>982.1492342949672</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6974,10 +6974,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>726.955532171245</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C37" t="n">
-        <v>558.0193492433381</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,7 +7117,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W37" t="n">
-        <v>1175.737662212792</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X37" t="n">
-        <v>947.7481113147751</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y37" t="n">
-        <v>726.955532171245</v>
+        <v>761.7140495035742</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7187,13 +7187,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171303</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892234</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>564.5188827892234</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>416.6057892068303</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>269.7158417089199</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>269.7158417089199</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7330,10 +7330,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797742</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.811327457202</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2045.209862480143</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>2045.209862480143</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1790.525374274256</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.10353054737</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>429.5088224239596</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1026.887310050512</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1654.485273605118</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>727.9786782557277</v>
+        <v>734.6461798836015</v>
       </c>
       <c r="C43" t="n">
-        <v>559.0424953278208</v>
+        <v>565.7099969556946</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>415.5933575433589</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,7 +7591,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>909.6271430859674</v>
+        <v>916.2946447138412</v>
       </c>
     </row>
     <row r="44">
@@ -7640,55 +7640,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>506.2737913123336</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703107</v>
+        <v>641.8461362382113</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424038</v>
+        <v>472.9099533103044</v>
       </c>
       <c r="D46" t="n">
-        <v>376.4492432300681</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="E46" t="n">
-        <v>228.536149647675</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2325.055080985708</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2105.453616008649</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1816.378389352847</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1561.69390114696</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1272.276731109999</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138409</v>
+        <v>1044.287180211982</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703107</v>
+        <v>823.4946010684511</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438636968</v>
+        <v>34.43939438636951</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.637877265859</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>8.609690055161877</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>223.028187210697</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,28 +8532,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241562</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>255.5240487471575</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>104.854640702829</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>77.91943958866466</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927373</v>
+        <v>90.25352389927374</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>54.02109718299838</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>172.7248065766853</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>266.2975548066609</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>139.9994244361425</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>131.6952193743961</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>167.2340587438923</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>78.2589433307307</v>
       </c>
       <c r="F22" t="n">
-        <v>45.65245098079548</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>142.4141550350975</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>152.1477127454053</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.0028419604374</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>142.4141550350975</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>53.40527886852278</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>142.4141550350966</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>8.456051398017749</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25366,13 +25366,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>65.54986409393049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>31.13893193492461</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,10 +25561,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>47.42036229045088</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>0.6960474398172982</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>133.6938862346288</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>211.9838267405007</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,10 +26029,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>93.31459260779064</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>126.7126101431585</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>981659.7400337969</v>
+        <v>981659.7400337968</v>
       </c>
     </row>
     <row r="6">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>348942.7521923205</v>
+      </c>
+      <c r="C2" t="n">
         <v>348942.7521923204</v>
       </c>
-      <c r="C2" t="n">
-        <v>348942.7521923203</v>
-      </c>
       <c r="D2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
-        <v>311350.4288166186</v>
+        <v>311350.4288166183</v>
       </c>
       <c r="F2" t="n">
         <v>343037.3048682528</v>
@@ -26332,7 +26332,7 @@
         <v>343037.3048682529</v>
       </c>
       <c r="I2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="J2" t="n">
         <v>343037.3048682527</v>
@@ -26341,19 +26341,19 @@
         <v>343037.3048682527</v>
       </c>
       <c r="L2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="M2" t="n">
+        <v>343037.3048682526</v>
+      </c>
+      <c r="N2" t="n">
         <v>343037.3048682527</v>
-      </c>
-      <c r="N2" t="n">
-        <v>343037.3048682528</v>
       </c>
       <c r="O2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682525</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.219065709</v>
+        <v>132804.2190657097</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929359</v>
+        <v>265413.0723929349</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545776</v>
+        <v>313577.1573545773</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704286</v>
+        <v>189308.268770429</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911403</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417471</v>
+        <v>30877.42926417489</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.3450204952</v>
+        <v>65018.34502049503</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273085</v>
+        <v>81897.40371273077</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202355</v>
+        <v>49839.57413202366</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>252122.0652631775</v>
       </c>
       <c r="C4" t="n">
-        <v>216477.7990382054</v>
+        <v>216477.7990382052</v>
       </c>
       <c r="D4" t="n">
         <v>141542.8205525801</v>
@@ -26430,16 +26430,16 @@
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680574</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
@@ -26448,16 +26448,16 @@
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
+        <v>11776.97621680585</v>
+      </c>
+      <c r="P4" t="n">
         <v>11776.97621680584</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11776.9762168059</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667509</v>
+        <v>72593.65038667513</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738569</v>
+        <v>85137.48506738566</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-646315.0968663165</v>
+        <v>-646315.0968663164</v>
       </c>
       <c r="C6" t="n">
-        <v>-72932.91629826918</v>
+        <v>-72932.9162982696</v>
       </c>
       <c r="D6" t="n">
-        <v>-150950.9131930404</v>
+        <v>-150950.9131930394</v>
       </c>
       <c r="E6" t="n">
-        <v>-99035.7712625039</v>
+        <v>-99256.90257647865</v>
       </c>
       <c r="F6" t="n">
-        <v>40829.53005711127</v>
+        <v>40794.7921316752</v>
       </c>
       <c r="G6" t="n">
-        <v>230137.7988275398</v>
+        <v>230103.0609021039</v>
       </c>
       <c r="H6" t="n">
-        <v>230137.79882754</v>
+        <v>230103.0609021043</v>
       </c>
       <c r="I6" t="n">
-        <v>230137.79882754</v>
+        <v>230103.0609021041</v>
       </c>
       <c r="J6" t="n">
-        <v>161138.6444084257</v>
+        <v>161103.9064829899</v>
       </c>
       <c r="K6" t="n">
-        <v>199260.3695633651</v>
+        <v>199225.6316379292</v>
       </c>
       <c r="L6" t="n">
-        <v>165119.4538070448</v>
+        <v>165084.715881609</v>
       </c>
       <c r="M6" t="n">
-        <v>148240.3951148089</v>
+        <v>148205.6571893732</v>
       </c>
       <c r="N6" t="n">
-        <v>180298.2246955163</v>
+        <v>180263.4867700804</v>
       </c>
       <c r="O6" t="n">
-        <v>230137.7988275398</v>
+        <v>230103.060902104</v>
       </c>
       <c r="P6" t="n">
-        <v>230137.7988275399</v>
+        <v>230103.0609021038</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695763</v>
+        <v>717.331951169577</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154329</v>
+        <v>383.6877278154335</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490094</v>
+        <v>969.2208239490089</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000981</v>
+        <v>103.2769374000986</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479629</v>
+        <v>216.7329409479621</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974114</v>
+        <v>268.1763450974113</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267231</v>
+        <v>165.7342631267234</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139268</v>
+        <v>119.9738478139273</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846059</v>
+        <v>256.8971042846052</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489705</v>
+        <v>328.6359918489702</v>
       </c>
       <c r="F4" t="n">
-        <v>203.487464150639</v>
+        <v>203.4874641506394</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.713880001506</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139268</v>
+        <v>119.9738478139275</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846059</v>
+        <v>256.8971042846052</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489705</v>
+        <v>328.6359918489702</v>
       </c>
       <c r="N4" t="n">
-        <v>203.487464150639</v>
+        <v>203.4874641506394</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139268</v>
+        <v>119.9738478139273</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846059</v>
+        <v>256.8971042846052</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489705</v>
+        <v>328.6359918489702</v>
       </c>
       <c r="N4" t="n">
-        <v>203.487464150639</v>
+        <v>203.4874641506394</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>50.4797526277618</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>252.7585347200395</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.6689735381485</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>118.930587503938</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0.3621388103840957</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>143.182762258099</v>
       </c>
       <c r="W4" t="n">
-        <v>231.7113272406126</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9.45777483751209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>309.9416328899765</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863668</v>
+        <v>99.30025118863658</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660374</v>
+        <v>143.3066953660373</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>209.3401737840008</v>
       </c>
       <c r="U5" t="n">
         <v>251.1149531848473</v>
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>82.87399460493815</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333224</v>
+        <v>97.33388804333222</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951715</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713635</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238325</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>130.5991745310314</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083601</v>
+        <v>62.70694412293143</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015376</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643365</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315183</v>
+        <v>119.1307056315182</v>
       </c>
       <c r="S7" t="n">
         <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>61.6495125375429</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>17.58415307084613</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>284.0581876145781</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28068,13 +28068,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>187.6315150612666</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>153.069234581139</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-7.032208304403594e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>7.07318341828168e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365129</v>
+        <v>2.883746537365131</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579063</v>
+        <v>29.53316922579066</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817692</v>
+        <v>111.1756383817693</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756938</v>
+        <v>244.754382675694</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023598</v>
+        <v>366.8233736023602</v>
       </c>
       <c r="L5" t="n">
-        <v>455.076831695248</v>
+        <v>455.0768316952484</v>
       </c>
       <c r="M5" t="n">
-        <v>506.360659179115</v>
+        <v>506.3606591791155</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284038</v>
+        <v>514.5541040284043</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974792</v>
+        <v>485.8788493974797</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562775</v>
+        <v>414.6863567562779</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868888</v>
+        <v>311.4121838868891</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277624</v>
+        <v>181.1461434277626</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020794</v>
+        <v>65.713374220208</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731586</v>
+        <v>12.62360046731587</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892103</v>
+        <v>0.2306997229892105</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.54294042327041</v>
+        <v>1.542940423270411</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316422</v>
+        <v>14.90155619316423</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189788</v>
+        <v>53.12316808189793</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862627</v>
+        <v>145.7740335862628</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453801</v>
+        <v>249.1510419453804</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438668</v>
+        <v>335.0143230438671</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874191</v>
+        <v>390.9459133874194</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189124</v>
+        <v>401.2930884189127</v>
       </c>
       <c r="O6" t="n">
-        <v>367.104776934868</v>
+        <v>367.1047769348683</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190662</v>
+        <v>294.6339480190665</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739561</v>
+        <v>196.9549915739563</v>
       </c>
       <c r="R6" t="n">
-        <v>95.7976518939295</v>
+        <v>95.79765189392958</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399202</v>
+        <v>28.65944163399204</v>
       </c>
       <c r="T6" t="n">
-        <v>6.21913267098906</v>
+        <v>6.219132670989066</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730533</v>
+        <v>0.1015092383730534</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141859</v>
+        <v>1.29354942014186</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907944</v>
+        <v>11.50083029907946</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572064</v>
+        <v>38.90055892572067</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402941</v>
+        <v>91.45394400402949</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401178</v>
+        <v>150.2869235401179</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545451</v>
+        <v>192.3155201545453</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773279</v>
+        <v>202.7697513773281</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022538</v>
+        <v>197.948339902254</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669603</v>
+        <v>182.8373307669604</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960662</v>
+        <v>156.4489225960664</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.317124626606</v>
+        <v>108.3171246266061</v>
       </c>
       <c r="R7" t="n">
-        <v>58.1626857456512</v>
+        <v>58.16268574565125</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101766</v>
+        <v>22.54303853101768</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060668</v>
+        <v>5.526983886060673</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864693</v>
+        <v>0.07055724109864699</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,34 +31753,34 @@
         <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639239</v>
+        <v>49.49729877639238</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285604</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203917</v>
+        <v>410.2059184203916</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975127</v>
+        <v>614.7923367975126</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544657</v>
+        <v>762.7042574544655</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795456</v>
+        <v>848.6554437954559</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180168</v>
+        <v>862.3875761180167</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956804</v>
+        <v>814.3281336956803</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620359</v>
+        <v>695.0102219620358</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825969</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
         <v>303.5991401696629</v>
@@ -31792,7 +31792,7 @@
         <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495315</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469212</v>
+        <v>89.03390294469209</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>417.574675759838</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>561.4806834747748</v>
       </c>
       <c r="M12" t="n">
-        <v>647.4094900695555</v>
+        <v>382.5526639806304</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340505</v>
+        <v>672.5632370340504</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924474</v>
+        <v>615.2639659924473</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383446</v>
+        <v>493.8035753383445</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.094612904754</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605174</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>48.03293999627653</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092168</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798455</v>
+        <v>65.19695102798454</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329027</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100542</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770064</v>
+        <v>339.8400926770063</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531029</v>
+        <v>331.7594548531028</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806239</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493065</v>
+        <v>262.2068429493064</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811711</v>
+        <v>97.48008457811709</v>
       </c>
       <c r="S13" t="n">
-        <v>37.7819090449354</v>
+        <v>37.78190904493539</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377485</v>
+        <v>9.263170188377483</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>463.4789474089069</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>351.6082511035024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>513.0745614164389</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,7 +32798,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>191.332301678856</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O27" t="n">
-        <v>369.1789913099997</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33266,7 +33266,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>200.3460366764704</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>638.4800548179295</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,28 +33971,28 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>460.9249101897664</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34214,22 +34214,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>248.5245325067415</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>217.8799919951683</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34466,10 +34466,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900753</v>
+        <v>63.70847814900776</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573792</v>
+        <v>146.7335225573796</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252607</v>
+        <v>219.3104167252611</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518423</v>
+        <v>276.0144259518428</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318129</v>
+        <v>285.1410404318133</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757925</v>
+        <v>255.7806379757929</v>
       </c>
       <c r="P5" t="n">
-        <v>183.453361001008</v>
+        <v>183.4533610010084</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.1064940124393</v>
+        <v>89.10649401243958</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959601</v>
+        <v>18.93640691959615</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710211</v>
+        <v>342.9474802368804</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639926</v>
+        <v>196.4599432639929</v>
       </c>
       <c r="M6" t="n">
-        <v>257.4215695205626</v>
+        <v>248.8118794654011</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355791</v>
+        <v>269.9513763355794</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904235</v>
+        <v>224.5085324904239</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6877278154329</v>
+        <v>160.6595406047362</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793462</v>
+        <v>56.97321748793482</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142349</v>
+        <v>128.017431714235</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148613</v>
+        <v>219.9055454148614</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391685</v>
+        <v>242.3536283391687</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814824</v>
+        <v>242.0805122814826</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809999</v>
+        <v>207.4224586810001</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609597</v>
+        <v>153.7274818609598</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491163</v>
+        <v>22.15508137491173</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>397.620397467641</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>622.455381029198</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937054</v>
+        <v>229.1600138937053</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525321</v>
+        <v>394.702485752532</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844786</v>
+        <v>526.9378424844783</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681833</v>
+        <v>618.3092105681832</v>
       </c>
       <c r="N11" t="n">
         <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739937</v>
+        <v>584.2299222739936</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067663</v>
+        <v>463.7772262067662</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081474</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553079</v>
+        <v>88.01360235553074</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>422.9263036949006</v>
       </c>
       <c r="M12" t="n">
-        <v>505.2754561475372</v>
+        <v>240.4186300586121</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507173</v>
+        <v>541.2215249507171</v>
       </c>
       <c r="O12" t="n">
-        <v>472.667721548003</v>
+        <v>472.6677215480029</v>
       </c>
       <c r="P12" t="n">
         <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187325</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655348</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186279</v>
+        <v>59.91672319186276</v>
       </c>
       <c r="K13" t="n">
         <v>229.6099018070198</v>
@@ -35574,19 +35574,19 @@
         <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.423969638847</v>
+        <v>379.4239696388469</v>
       </c>
       <c r="N13" t="n">
         <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946636</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142</v>
+        <v>259.4854022141999</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776314</v>
+        <v>95.37638356776311</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>325.6375084345479</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>217.6338436891722</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191312</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>374.5201816365647</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066246</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,7 +36446,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>59.99058959552271</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O27" t="n">
-        <v>226.5827468655553</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>57.74979223202591</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>496.3460208959112</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>322.3705304098922</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>114.5501250924112</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>79.32561221529411</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38114,10 +38114,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
